--- a/biology/Zoologie/Haliploidea/Haliploidea.xlsx
+++ b/biology/Zoologie/Haliploidea/Haliploidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haliplidae sont une famille de petits coléoptères aquatiques, qui regroupe environ 200 espèces en cinq genres, distribués dans le monde entier.
 Ils sont  considérés comme relativement mauvais nageurs et pour cette raison parfois nommés crawling water beetles (coléoptères aquatiques rampants) par les Anglo-Saxons.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur forme est généralement ovale, avec des longueurs variant de 1,5 à 5 millimètres.
 Couleur :  jaunâtre à brun clair. Leurs élytres sont fréquemment ornés de pointillés clairs et foncés (10 rangées ou plus)
@@ -548,7 +562,9 @@
           <t>Reproduction et développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette famille, les espèces de Peltodytes déposent leurs œufs sur la surface de plantes aquatiques, alors que les  Haliplus « mastiquent » une cavité dans les plantes pour y protéger leurs œufs.
 Il y a trois larves et la pupe est formée sur la terre dans une chambre construite dans le sol par la larve.
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Genre Cretihaliplus Ren, Zhu &amp; Lu, 1995 (fossile)
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Genre Cretihaliplus Ren, Zhu &amp; Lu, 1995 (fossile)
 Genre Algophilus Zimmermann, 1924
 Genre Apteraliplus Chandler, 1943
 Genre Brychius Thomson, 1859
@@ -596,9 +617,43 @@
 Sous-Genre Phalilus Guignot, 1935
 Genre Peltodytes Régimbart, 1879
 Sous-Genre Neopeltodytes Satô, 1963
-Sous-Genre Peltodytes Régimbart, 1879
-Espèces présentes en Europe
-Brychius elevatus (Panzer, 1794)
+Sous-Genre Peltodytes Régimbart, 1879</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haliploidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haliploidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brychius elevatus (Panzer, 1794)
 Brychius glabratus (A. Villa &amp; J. B. Villa, 1835)
 Haliplus confinis Stephens, 1828
 Haliplus obliquus (Fabricius, 1787)
@@ -631,40 +686,76 @@
 Haliplus lineatocollis (Marsham, 1802)
 Haliplus ruficeps Chevrolat, 1861
 Peltodytes caesus (Duftschmid, 1805)
-Peltodytes rotundatus (Aubé, 1836)
-Groupe séparé ?
-Les haliplidés sont ils un groupe séparé ? La plupart des entomologistes croient qu'ils se sont développés à partir des coléoptères terrestres séparément d'autres types de coléoptères aquatiques.
+Peltodytes rotundatus (Aubé, 1836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haliploidea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haliploidea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Groupe séparé ?</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les haliplidés sont ils un groupe séparé ? La plupart des entomologistes croient qu'ils se sont développés à partir des coléoptères terrestres séparément d'autres types de coléoptères aquatiques.
 Vondel B.J. van 2005: Haliplidae, pp. 20-86. In: Nilsson A.N. &amp; Vondel B.J. van. 2005. Amphizoidae, Aspidytidae, Haliplidae, Noteridae and Paelobiidaer (Coleoptera, Adephaga).
 Vondel B.J. van 2007: World Catalogue of Haliplidae - corrections and additions 1 (Coleoptera: Haliplidae). - Koleopterologische Rundschau 77: 89-96.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Haliploidea</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Haliploidea</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La richesse et la diversité génétique de ce groupe ont probablement beaucoup régressé avec la disparition, la dégradation et la fragmentation de leur habitat.
 Une espèce,  Brychius hungerfordi, est classée en voie de disparition aux USA, n’étant plus trouvée que dans le Michigan et en Ontario.
